--- a/xls/sk_tree.xlsx
+++ b/xls/sk_tree.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868"/>
+    <workbookView xWindow="0" yWindow="12" windowWidth="19200" windowHeight="11868" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="normal" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>"type":"skill",
 "id":"fireball",
@@ -69,7 +69,15 @@
 "pts":[
 {"x":75,"y":75},
 {"x":75,"y":100}],
-"refs":["lunge","fireball"]</t>
+"refs":[
+"lunge",
+"fireball"]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"type":"skill",
+"id":"test1",
+"x":225,"y":25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -431,14 +439,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="16.44140625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="18.5546875" style="2" customWidth="1"/>
     <col min="3" max="3" width="18.33203125" style="2" customWidth="1"/>
     <col min="4" max="4" width="24.21875" style="2" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="2"/>
@@ -454,22 +464,19 @@
       </c>
       <c r="D1" s="1"/>
     </row>
-    <row r="2" spans="1:4" ht="97.2">
+    <row r="2" spans="1:4" ht="113.4">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
       <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="97.2">
+    <row r="3" spans="1:4" ht="48.6">
       <c r="B3" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="48.6">
-      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
@@ -482,24 +489,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="14.6640625" customWidth="1"/>
     <col min="2" max="2" width="17.77734375" customWidth="1"/>
+    <col min="3" max="3" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="48.6">
+    <row r="1" spans="1:3" ht="48.6">
       <c r="A1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>6</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/xls/sk_tree.xlsx
+++ b/xls/sk_tree.xlsx
@@ -29,12 +29,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>"type":"skill",
-"id":"lightning",
-"x":75,"y":125</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>"type":"link",
 "pts":[
 {"x":25,"y":50},
@@ -56,12 +50,6 @@
     <t>"type":"skill",
 "id":"strong",
 "x":25,"y":25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>"type":"skill",
-"id":"test",
-"x":125,"y":25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -78,6 +66,18 @@
     <t>"type":"skill",
 "id":"test1",
 "x":225,"y":25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"type":"skill",
+"id":"ice",
+"x":75,"y":125</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>"type":"skill",
+"id":"heal",
+"x":125,"y":25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -442,7 +442,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -466,18 +466,18 @@
     </row>
     <row r="2" spans="1:4" ht="113.4">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="48.6">
       <c r="B3" s="1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -492,7 +492,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -504,13 +504,13 @@
   <sheetData>
     <row r="1" spans="1:3" ht="48.6">
       <c r="A1" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
